--- a/data/trans_camb/P25A_N_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_N_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>2,91</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,42</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>4,7</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>4,33</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,82</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 2,68</t>
+          <t>-4,8; 2,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 2,93</t>
+          <t>-4,07; 3,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 6,64</t>
+          <t>-2,7; 5,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 4,16</t>
+          <t>0,37; 8,84</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 3,37</t>
+          <t>-0,72; 6,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 8,94</t>
+          <t>-3,28; 3,92</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 2,58</t>
+          <t>-4,22; 3,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 2,22</t>
+          <t>2,75; 11,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,75</t>
+          <t>0,29; 9,68</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>2,44; 10,8</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 2,32</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 2,29</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,38; 7,44</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 7,44</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 7,46</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,83%</t>
+          <t>-6,49%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-4,77%</t>
+          <t>-0,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>36,13%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>49,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,58%</t>
+          <t>24,67%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>38,12%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-1,94%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>49,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,49%</t>
+          <t>21,72%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>33,91%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,39%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-1,36%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>37,01%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>28,75%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>30,5%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 40,28</t>
+          <t>-43,13; 41,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-38,08; 43,12</t>
+          <t>-36,51; 43,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 102,1</t>
+          <t>-26,16; 72,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,84; 34,53</t>
+          <t>1,59; 113,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 27,12</t>
+          <t>-5,85; 67,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>8,81; 74,22</t>
+          <t>-20,01; 30,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-20,33; 25,07</t>
+          <t>-24,99; 24,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 21,86</t>
+          <t>18,26; 93,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,56; 67,23</t>
+          <t>1,38; 50,83</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 61,03</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-21,46; 23,0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-20,54; 22,35</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,09; 70,25</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>9,14; 52,95</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,28; 52,16</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,57</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>5,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>-0,44</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>9,52</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,39</t>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,15</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>6,05</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,63</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,02</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 3,31</t>
+          <t>-3,41; 2,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 4,75</t>
+          <t>-2,75; 4,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 7,35</t>
+          <t>-1,04; 6,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 2,45</t>
+          <t>0,39; 10,59</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 4,31</t>
+          <t>0,0; 11,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 16,71</t>
+          <t>-7,2; 1,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 1,9</t>
+          <t>-5,37; 4,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 3,5</t>
+          <t>3,73; 15,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 9,54</t>
+          <t>-7,16; 8,23</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-6,57; 10,58</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,65; 1,0</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 3,29</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>2,74; 10,38</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 7,62</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 9,03</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>-2,93%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>36,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,78%</t>
+          <t>54,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,49%</t>
+          <t>62,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>61,86%</t>
+          <t>-16,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>-2,87%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>61,48%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51,25%</t>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9,18%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-12,87%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,24%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>53,73%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>15,19%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>25,27%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 68,47</t>
+          <t>-40,04; 61,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 95,55</t>
+          <t>-32,02; 84,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 144,65</t>
+          <t>-13,48; 125,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,54; 19,88</t>
+          <t>0,85; 131,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,73; 35,26</t>
+          <t>-2,77; 173,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,52; 130,95</t>
+          <t>-38,66; 16,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,79; 22,29</t>
+          <t>-29,49; 34,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 38,34</t>
+          <t>20,18; 119,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,43; 103,64</t>
+          <t>-25,62; 37,38</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-24,05; 52,3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-35,17; 9,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-22,55; 35,85</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>19,92; 103,08</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 50,71</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-8,74; 65,69</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>4,43</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,51</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-8,59</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-4,3</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,86</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,47</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,86</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 11,89</t>
+          <t>-4,53; 11,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 5,01</t>
+          <t>-9,87; 5,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-10,71; 6,13</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-19,59; 1,35</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 6,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-13,9; 4,05</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-11,18; 8,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,07; 9,35</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 3,97</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 3,29</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-6,64; 5,43</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-8,13; 4,79</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-7,45; 6,43</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>45,77%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-15,61%</t>
+          <t>-20,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-14,23%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-34,9%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-17,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-20,94%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,91%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-0,52%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-11,7%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-16,8%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,96%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,83%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-5,42%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 184,21</t>
+          <t>-29,37; 185,02</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-65,66; 91,41</t>
+          <t>-64,5; 85,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-64,74; 90,44</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-60,43; 9,33</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,56; 34,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-53,21; 24,95</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-41,14; 60,78</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-42,44; 59,74</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-42,58; 29,71</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-45,29; 24,5</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-33,67; 46,49</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-41,29; 38,37</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-38,03; 55,41</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>3,58</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>-1,3</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7,25</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5,69</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>-0,64</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-0,26</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>4,02</t>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>4,63</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,52</t>
+          <t>-2,42; 2,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,37</t>
+          <t>-2,62; 2,33</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,77</t>
+          <t>-1,09; 3,84</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 1,35</t>
+          <t>2,03; 8,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 2,03</t>
+          <t>0,2; 6,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,34; 8,1</t>
+          <t>-4,18; 1,33</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 1,18</t>
+          <t>-3,14; 2,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,63</t>
+          <t>4,07; 10,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,84; 6,11</t>
+          <t>-0,39; 7,43</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 9,53</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,56; 1,14</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 1,71</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>2,18; 6,74</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,69; 6,69</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 7,0</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>40,62%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,01%</t>
+          <t>51,96%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>-8,38%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,46%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-2,22%</t>
+          <t>46,62%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>14,79%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27,78%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-5,36%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-1,05%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>36,58%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>24,81%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,51; 37,29</t>
+          <t>-25,66; 35,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-23,78; 35,16</t>
+          <t>-26,71; 32,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,72; 84,77</t>
+          <t>-12,15; 53,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-23,24; 10,21</t>
+          <t>18,0; 97,97</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 15,1</t>
+          <t>1,44; 71,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,22; 57,17</t>
+          <t>-24,05; 9,75</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 10,66</t>
+          <t>-18,4; 16,77</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,09; 15,75</t>
+          <t>22,89; 76,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,93; 55,81</t>
+          <t>-1,62; 36,24</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>9,88; 52,23</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-20,31; 10,37</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-16,26; 15,01</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>16,43; 61,58</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 43,12</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>12,89; 46,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
